--- a/internalContent/DETraining/DXCUForms/Badge Creation Request.Yellow.xlsx
+++ b/internalContent/DETraining/DXCUForms/Badge Creation Request.Yellow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXCWork\OneDrive - DXC Production\Projects\DXC\Digital Explorer\gitRepo\Digital-Explorer-Specs\internalContent\DETraining\DXCUForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FBF4A0DD-5429-430A-9FA4-F62D3109E3A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D13B4D9F-6E5C-4778-A695-C0967E687CE6}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FBF4A0DD-5429-430A-9FA4-F62D3109E3A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B6A78A65-C8E4-42A5-BFD9-C0F287350AA0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{214306FA-6240-4162-BEEB-E71F35896C7E}"/>
+    <workbookView xWindow="34050" yWindow="1035" windowWidth="20040" windowHeight="16365" activeTab="1" xr2:uid="{214306FA-6240-4162-BEEB-E71F35896C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="START HERE Type and Image" sheetId="5" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>DXC Digital Explorer - White Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">curra000000000004384 </t>
-  </si>
-  <si>
     <t>DXC Digital Explorer Yellow Belt</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Completion the DXC Digital Explorer Yellow Belt Curriculum</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>96</v>
@@ -1399,10 +1399,10 @@
         <v>82</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>100</v>
@@ -1415,13 +1415,13 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>98</v>
@@ -1430,7 +1430,7 @@
         <v>66</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>99</v>
@@ -1814,6 +1814,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015D688BCB0AAEA49B5B2D36D061AC698" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a252bf2c5aae596da366669542fdf958">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="473b9712-6dda-4ded-8bae-2521c976cfd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11187221a23b5c9f7dc2e83becce07a4" ns2:_="">
     <xsd:import namespace="473b9712-6dda-4ded-8bae-2521c976cfd5"/>
@@ -1951,15 +1960,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1967,6 +1967,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796B1906-50CB-4713-B028-81E906971A56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16BB339-63D3-41E1-8E9D-348E478F9679}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1984,26 +1992,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796B1906-50CB-4713-B028-81E906971A56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74D46635-C466-4EF8-A72A-3C514419DFFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="473b9712-6dda-4ded-8bae-2521c976cfd5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>